--- a/references/BayesMadeSimple/Bayes worksheet.xlsx
+++ b/references/BayesMadeSimple/Bayes worksheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehabnaeem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehabnaeem/Documents/Coding-Projects/bayesian-analysis/references/BayesMadeSimple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97156E52-B2DB-CC45-ABED-CC775FE78BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD3C96-828E-EF41-AA30-80346995654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie Problem" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Dice Problem" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>1. Hypothesis</t>
   </si>
@@ -42,10 +43,6 @@
   </si>
   <si>
     <t>3. Likelihood</t>
-  </si>
-  <si>
-    <t>4. Unnormalized
-    posterior</t>
   </si>
   <si>
     <t>6. Posterior</t>
@@ -74,6 +71,21 @@
   </si>
   <si>
     <t>4. Unnormalized posterior</t>
+  </si>
+  <si>
+    <t>5. Total prob of data</t>
+  </si>
+  <si>
+    <t>4-Sided</t>
+  </si>
+  <si>
+    <t>6-Sided</t>
+  </si>
+  <si>
+    <t>8-Sided</t>
+  </si>
+  <si>
+    <t>12-Sided</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -508,15 +520,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>0.5</v>
@@ -536,7 +548,7 @@
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>0.5</v>
@@ -569,7 +581,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -579,6 +591,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B05381E-0BCB-C643-84AD-54DD8CBC1F61}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D5" si="0">C2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E5" si="1">D2/D$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3">
+        <f>SUM(D2:D5)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -587,10 +736,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -602,16 +754,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -630,7 +782,7 @@
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -649,7 +801,7 @@
     </row>
     <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -668,7 +820,7 @@
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -699,8 +851,8 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="4"/>
     </row>
